--- a/datos_prueba/historia_academica_juan.xlsx
+++ b/datos_prueba/historia_academica_juan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan_\Desktop\Universidad\Sistema_Recomendador_Finales\datos_prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BF41B7-B4EC-454F-AEED-92A32DAC3229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271EAAA5-CC3D-4D63-A2D6-75A331474CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -687,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
